--- a/summer_2019_edited_csv/Copy of Starrett_1950_table21.xlsx
+++ b/summer_2019_edited_csv/Copy of Starrett_1950_table21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\summer_2019_edited_csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\Summer2019\id test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E46AF714-74EA-43A3-9A33-FD03854738D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A229A19-2959-4E9D-B720-10C444E3B227}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="1824" windowWidth="17280" windowHeight="8976" xr2:uid="{ECA2FDDA-2EA1-4FDA-B05D-C46E6403ADB1}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{ECA2FDDA-2EA1-4FDA-B05D-C46E6403ADB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,43 +89,43 @@
     <t>Fish</t>
   </si>
   <si>
-    <t>na_deliciosus_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl2</t>
-  </si>
-  <si>
-    <t>Notropis_spilopterus_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl2</t>
-  </si>
-  <si>
-    <t>Notropis_dorsalis_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl2</t>
-  </si>
-  <si>
-    <t>Notropis_cornutus_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl2</t>
-  </si>
-  <si>
-    <t>Semotilus_atromaculatus_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl2</t>
-  </si>
-  <si>
-    <t>Notropis_rubellus_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl2</t>
-  </si>
-  <si>
-    <t>na_perspicuus_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl2</t>
-  </si>
-  <si>
-    <t>na_aestivalis_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl2</t>
-  </si>
-  <si>
-    <t>Phenacobius_mirabilis_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl2</t>
-  </si>
-  <si>
-    <t>Hyborhynchus_notatus_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl2</t>
-  </si>
-  <si>
-    <t>Hyborhynchus_hankinsoni_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl2</t>
-  </si>
-  <si>
-    <t>Campostoma_anomalum_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl2</t>
-  </si>
-  <si>
-    <t>Pinephales_promelas_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl2</t>
+    <t>na_deliciosus_na_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl5</t>
+  </si>
+  <si>
+    <t>Notropis_spilopterus_na_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl5</t>
+  </si>
+  <si>
+    <t>Notropis_dorsalis_na_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl5</t>
+  </si>
+  <si>
+    <t>Notropis_cornutus_na_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl5</t>
+  </si>
+  <si>
+    <t>Semotilus_atromaculatus_na_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl5</t>
+  </si>
+  <si>
+    <t>Notropis_rubellus_na_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl5</t>
+  </si>
+  <si>
+    <t>na_perspicuus_na_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl5</t>
+  </si>
+  <si>
+    <t>na_aestivalis_na_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl5</t>
+  </si>
+  <si>
+    <t>Phenacobius_mirabilis_na_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl5</t>
+  </si>
+  <si>
+    <t>Hyborhynchus_notatus_na_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl5</t>
+  </si>
+  <si>
+    <t>Hyborhynchus_hankinsoni_na_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl5</t>
+  </si>
+  <si>
+    <t>Campostoma_anomalum_na_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl5</t>
+  </si>
+  <si>
+    <t>Pinephales_promelas_na_na_na_na_1946_Apr_na_1947_Jul_10_river_percVolume_percent_Starrett_1950_EcologicalSocietyOfAmerica_Bone County, Iowa_na_na_monthly_Starrett, W. C. (1950). Food relationships of the minnows of the Des Moines River, Iowa. Ecology, 31(2), 216-233._tbl5</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
